--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56233.50998090186</v>
+        <v>49222.78086490695</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>294.1804057524735</v>
+        <v>47.61249206384394</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615368</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.23206021309142</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.30043339639756</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -829,10 +829,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>19.59515096893852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.1262725471355</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>101.9573293741757</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>125.587522695527</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968138</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.90494553920922</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>173.7828199682118</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>38.72680197103318</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>38.63448384558151</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>99.30432603779639</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>48.10463200121418</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362806</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>196.7860861765616</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>256.2986695175322</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>52.30522561512524</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>13.81126899365138</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>257.7126796624146</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>234.1900392959049</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>21.42155267836992</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.56740021144629</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383891</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828922</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431754</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459995</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643968</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931879</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908606</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147819</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805023</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922216</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367808</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792054</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730214</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.1901032098908</v>
+        <v>501.3025494385018</v>
       </c>
       <c r="C2" t="n">
-        <v>812.1901032098908</v>
+        <v>501.3025494385018</v>
       </c>
       <c r="D2" t="n">
-        <v>812.1901032098908</v>
+        <v>501.3025494385018</v>
       </c>
       <c r="E2" t="n">
-        <v>812.1901032098908</v>
+        <v>98.7190245550463</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1085.386573341139</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572953</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737752</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297168</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.282367297168</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.175558000687</v>
+        <v>1272.796330181611</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.175558000687</v>
+        <v>901.7972951498987</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.175558000687</v>
+        <v>901.7972951498987</v>
       </c>
       <c r="Y2" t="n">
-        <v>1212.684848921288</v>
+        <v>901.7972951498987</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021465</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622387</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837191</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946068</v>
+        <v>269.0920646522965</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777386</v>
+        <v>144.6602585354283</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475503</v>
+        <v>144.6602585354283</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475503</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875482</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676006</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431079</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>721.8306207529507</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="C4" t="n">
-        <v>721.8306207529507</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="D4" t="n">
-        <v>680.1130112616401</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208426</v>
+        <v>218.6222633301721</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338155</v>
+        <v>61.29632854314502</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>61.29632854314502</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.8306207529507</v>
+        <v>374.1810754709696</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>914.9351690094102</v>
+        <v>997.5757759456094</v>
       </c>
       <c r="C5" t="n">
-        <v>914.9351690094102</v>
+        <v>604.40027444854</v>
       </c>
       <c r="D5" t="n">
-        <v>914.9351690094102</v>
+        <v>604.40027444854</v>
       </c>
       <c r="E5" t="n">
-        <v>914.9351690094102</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F5" t="n">
-        <v>498.0407305393879</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>488.9183790677952</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>164.8353286342858</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572953</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572953</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023273</v>
+        <v>1934.182222714387</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.28945358269</v>
+        <v>1710.681620273804</v>
       </c>
       <c r="U5" t="n">
-        <v>1657.536724017289</v>
+        <v>1710.681620273804</v>
       </c>
       <c r="V5" t="n">
-        <v>1315.429914720807</v>
+        <v>1368.574810977322</v>
       </c>
       <c r="W5" t="n">
-        <v>1315.429914720807</v>
+        <v>997.5757759456094</v>
       </c>
       <c r="X5" t="n">
-        <v>1315.429914720807</v>
+        <v>997.5757759456094</v>
       </c>
       <c r="Y5" t="n">
-        <v>1315.429914720807</v>
+        <v>997.5757759456094</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>426.1038186027969</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475503</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569815</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653889</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875482</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1877.147508262691</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.9683549315752</v>
+        <v>222.723461194601</v>
       </c>
       <c r="C7" t="n">
-        <v>206.9683549315752</v>
+        <v>52.51834326059017</v>
       </c>
       <c r="D7" t="n">
-        <v>206.9683549315752</v>
+        <v>52.51834326059017</v>
       </c>
       <c r="E7" t="n">
-        <v>206.9683549315752</v>
+        <v>52.51834326059017</v>
       </c>
       <c r="F7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865308</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>206.9683549315752</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>206.9683549315752</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W7" t="n">
-        <v>206.9683549315752</v>
+        <v>456.8037834116179</v>
       </c>
       <c r="X7" t="n">
-        <v>206.9683549315752</v>
+        <v>222.723461194601</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.9683549315752</v>
+        <v>222.723461194601</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1447.90751364532</v>
+        <v>1310.326153624201</v>
       </c>
       <c r="C8" t="n">
-        <v>1054.732012148251</v>
+        <v>917.1506521271314</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.732012148251</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4811,43 +4811,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.402259356717</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.402259356717</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X8" t="n">
-        <v>1848.402259356717</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1848.402259356717</v>
+        <v>1349.444135413123</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.3238676264566</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="C10" t="n">
-        <v>386.3238676264566</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="D10" t="n">
-        <v>386.3238676264566</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E10" t="n">
-        <v>386.3238676264566</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
-        <v>228.9979328394296</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1702.435468430417</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E11" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527726</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654572</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2358.198292302756</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X11" t="n">
-        <v>2040.541962382007</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>2031.13393899562</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>326.1762814043714</v>
+        <v>292.7837755129684</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1762814043714</v>
+        <v>292.7837755129684</v>
       </c>
       <c r="D13" t="n">
-        <v>242.3394434530799</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="E13" t="n">
-        <v>158.5769064584762</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584762</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5206,43 +5206,43 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245439</v>
+        <v>988.1475398457736</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915619</v>
+        <v>793.9644698127918</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689334</v>
+        <v>582.4303428901633</v>
       </c>
       <c r="X13" t="n">
-        <v>477.4920674415342</v>
+        <v>420.1462958193401</v>
       </c>
       <c r="Y13" t="n">
-        <v>326.1762814043714</v>
+        <v>406.1955190580758</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1229.733075037215</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>969.4172369943723</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2921.999930786569</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.44433553818</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.78800561743</v>
+        <v>1883.125979535623</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684225</v>
+        <v>1558.431545602418</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.7257955609475</v>
+        <v>389.2709335955764</v>
       </c>
       <c r="C16" t="n">
-        <v>216.7257955609475</v>
+        <v>290.8620908077595</v>
       </c>
       <c r="D16" t="n">
-        <v>216.7257955609475</v>
+        <v>290.8620908077595</v>
       </c>
       <c r="E16" t="n">
-        <v>216.7257955609475</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>216.7257955609475</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>120.2680168065865</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5467,19 +5467,19 @@
         <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245439</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915619</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689334</v>
+        <v>724.5086987019157</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981103</v>
+        <v>562.2246516310927</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609475</v>
+        <v>410.9088655939299</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031230035</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222422</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296042</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5914,16 +5914,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6072,19 +6072,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2267.810399848734</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,16 +6154,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,58 +6218,58 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,19 +6309,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6543,22 +6543,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010033</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781684</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146216</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765614</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897136</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076169</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076169</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076169</v>
+        <v>664.2362037203857</v>
       </c>
       <c r="M33" t="n">
-        <v>697.3191978674429</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1353.097169078002</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1869.617451668983</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2275.23882038538</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965143</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805557</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458897</v>
+        <v>611.4615154993336</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377099</v>
+        <v>906.3032701055257</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300096</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124435</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584512</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129455</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404073</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J37" t="n">
         <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567347</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879438</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296519</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7257,7 +7257,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
         <v>568.1699486069232</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7570,22 +7570,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7682,16 +7682,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7807,16 +7807,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
         <v>974.9038003296507</v>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>214.0018366896116</v>
       </c>
       <c r="N2" t="n">
-        <v>266.6172218749701</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679587</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>290.5726198043354</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>343.1485770624456</v>
       </c>
       <c r="M5" t="n">
-        <v>312.6161996011404</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810477033</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886045</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>291.0031325036217</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>487.848403846783</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128008</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>543.2755872400996</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>345.5977578821532</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9720,7 +9720,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,10 +9732,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236083</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,22 +9957,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>577.0069902189987</v>
+        <v>688.0608343844983</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,25 +10191,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>658.1108392979577</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>663.243408913278</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,25 +10665,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>711.5734917843249</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,10 +10905,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M39" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -11139,16 +11139,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>99.42464611010193</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>65.14882007634075</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>108.3559809849896</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>135.9913591831398</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>60.45275442495215</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>93.77010711362792</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>62.02069299075859</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>90.8560734312864</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>25.27805292194278</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892410.5311766426</v>
+        <v>892410.5311766427</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="C2" t="n">
         <v>252465.0493306995</v>
@@ -26320,40 +26320,40 @@
         <v>252465.0493306995</v>
       </c>
       <c r="E2" t="n">
-        <v>223102.6327941606</v>
+        <v>223102.6327941607</v>
       </c>
       <c r="F2" t="n">
         <v>223102.6327941606</v>
       </c>
       <c r="G2" t="n">
-        <v>252465.0493306991</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="H2" t="n">
-        <v>252465.0493306994</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="I2" t="n">
-        <v>252465.0493306994</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="J2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="K2" t="n">
         <v>252465.0493306995</v>
       </c>
       <c r="L2" t="n">
-        <v>252465.0493306998</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="M2" t="n">
-        <v>252465.0493306992</v>
+        <v>252465.0493306991</v>
       </c>
       <c r="N2" t="n">
-        <v>252465.0493306992</v>
+        <v>252465.0493306991</v>
       </c>
       <c r="O2" t="n">
         <v>252465.0493306993</v>
       </c>
       <c r="P2" t="n">
-        <v>252465.0493306993</v>
+        <v>252465.0493306992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728536</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081123</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277114</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153196</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153196</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,16 +26491,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163630.3033254806</v>
+        <v>-160481.9527387063</v>
       </c>
       <c r="C6" t="n">
-        <v>18574.64496637546</v>
+        <v>13376.70429534873</v>
       </c>
       <c r="D6" t="n">
-        <v>13711.36267250037</v>
+        <v>5975.073449108517</v>
       </c>
       <c r="E6" t="n">
-        <v>-16290.44390346183</v>
+        <v>-16500.17545015139</v>
       </c>
       <c r="F6" t="n">
-        <v>95832.11757058263</v>
+        <v>95622.38602389301</v>
       </c>
       <c r="G6" t="n">
-        <v>25026.54246317787</v>
+        <v>25026.54246317795</v>
       </c>
       <c r="H6" t="n">
-        <v>72451.86799986006</v>
+        <v>72451.86799986019</v>
       </c>
       <c r="I6" t="n">
-        <v>72451.8679998601</v>
+        <v>72451.86799985988</v>
       </c>
       <c r="J6" t="n">
-        <v>-140590.0495974256</v>
+        <v>-134073.7644428519</v>
       </c>
       <c r="K6" t="n">
         <v>66212.09959707726</v>
       </c>
       <c r="L6" t="n">
-        <v>11029.51066245647</v>
+        <v>6980.673451983865</v>
       </c>
       <c r="M6" t="n">
-        <v>30251.03854023684</v>
+        <v>29199.34352904848</v>
       </c>
       <c r="N6" t="n">
-        <v>72451.8679998599</v>
+        <v>72451.86799985982</v>
       </c>
       <c r="O6" t="n">
-        <v>44684.17395708882</v>
+        <v>44684.17395708871</v>
       </c>
       <c r="P6" t="n">
-        <v>72451.86799985994</v>
+        <v>72451.86799985993</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,16 +26707,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660671</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551375</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773722</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>118.5450883328485</v>
+        <v>365.1130020214781</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270052</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>34.18238202231365</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>112.7763485701128</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>134.3286145591824</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27591,19 +27591,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>16.82747319132434</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>62.89109013418421</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.494503284694105</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626683</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>144.8477298999476</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>108.8015838723063</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>357.7629962832497</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>359.9232057890394</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>84.05161246659188</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,19 +28017,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>118.4668813603347</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.7104901066892</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28986,19 +28986,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29226,19 +29226,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634528381</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>86.65052755599436</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,19 +29536,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>48.65992738833575</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893187</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045695</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>76.79385455031226</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29983,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>35.71049010668935</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,13 +30414,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>5.636002634528808</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30879,19 +30879,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>64.27678509188432</v>
       </c>
       <c r="N2" t="n">
-        <v>117.4987305371861</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864683</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.2005069501687</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>189.9004073319539</v>
       </c>
       <c r="M5" t="n">
-        <v>162.8911480034131</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983914</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344379</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>200.0149793477077</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>338.7299125089989</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934861</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634530128</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>260.2256450279866</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,10 +36452,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676943</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,19 +36522,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873203</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>584.9538525242053</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101047</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696868</v>
+        <v>595.6737123351865</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673912</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>572.7387264437911</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>546.9632523565467</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155196</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>570.8562868639661</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624769</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>80.25061856046474</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260908</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>626.2013789301583</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594813</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M39" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,13 +37710,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37859,16 +37859,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
